--- a/DDAf_2020_tableau_annexe_Tab01.xlsx
+++ b/DDAf_2020_tableau_annexe_Tab01.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7090"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="Tab01" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="173">
   <si>
     <t>Tableau 1: Indicateurs de croissance, d'emploi et d'inégalités</t>
   </si>
@@ -37,19 +37,19 @@
     <t>Population (en milliers), 2019</t>
   </si>
   <si>
-    <t>Produit intérieur brut nominal en dollars US en parité de pouvoir d'achat, 2019</t>
-  </si>
-  <si>
-    <t>Produit intérieur brut en dollars américains, 2019</t>
-  </si>
-  <si>
-    <t>Croissance du PIB réel (%), 2019</t>
+    <t>Produit intérieur brut nominal en dollars US en parité de pouvoir d'achat (millions), 2019</t>
+  </si>
+  <si>
+    <t>Produit intérieur brut en dollars américains (millions), 2019</t>
+  </si>
+  <si>
+    <t>Croissance réelle du PIB (%), 2019</t>
   </si>
   <si>
     <t>PIB en parité de pouvoir d'achat (PPA) en dollars US par habitant, 2019</t>
   </si>
   <si>
-    <t>Emploi en % de la population de 15 ans et plus, 2019</t>
+    <t>Emploi en % de la population âgée de 15 ans et plus, 2019</t>
   </si>
   <si>
     <t>Coefficient de Gini (estimations de la Banque Mondiale, données les plus récentes 2010-19)</t>
@@ -517,7 +517,7 @@
     <t>Note : *Pays riches en ressources ; ".."signifie que les données ne sont pas disponibles ou qu'elles ne sont pas valables.</t>
   </si>
   <si>
-    <t>RDM = "Reste du monde" ; LAC = "Pays d'Amérique latine et des Caraîbes"</t>
+    <t>RDM = "Reste du monde" ; LAC = "Pays d'Amérique latine et des Caraïbes"</t>
   </si>
   <si>
     <t>Communautées économiques régionales : CEN-SAD = "Communauté des États sahélo-sahariens ";COMESA = "Marché commun de l'Afrique orientale et australe";CAE = "Communauté d'Afrique de l'Est ";CEEAC = "Communauté économique des États de l'Afrique centrale";CÉDÉAOO = "Communauté économique des États de l'Afrique de l'Ouest";IGAD = "Autorité intergouvernementale pour le développement";CDAA = "Communauté de développement d'Afrique australe";UMA = "Union du Maghreb arabe";ASEAN = "Association des nations de l'Asie du Sud-Est";MERCOSUR = "Marché commun du Sud";</t>
@@ -526,7 +526,97 @@
     <t>Source : Organisation internationale du Travail - ILOSTAT (récupéré le 25/10/2020), données en ligne du développement humain du Programme des Nations Unies pour le développement (édition 2019), Indicateurs de développement dans le monde de la Banque mondiale (données des banques centrales, des agences nationales de statistiques et des bureaux nationaux de la Banque mondiale - mis à jour le 16/10/2020), base de données des Perspectives de l'économie mondiale du FMI, octobre 2020.</t>
   </si>
   <si>
-    <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les séries chronologiques historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-fr-2020.</t>
+    <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-fr-2020.</t>
+  </si>
+  <si>
+    <t>Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails.</t>
+  </si>
+  <si>
+    <t>Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pour télécharger toutes les données de l'annexe statistique des </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dynamiques du développement en Afrique</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> au format csv compressé, y compris les données historiques remontant à 2000, cliquez ici.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pour télécharger toutes les données de l'annexe statistique des </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dynamiques du développement en Afrique</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> au format Excel non compressé, y compris les données historiques remontant à 2000, cliquez ici pour télécharger le premier des deux fichiers de données.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pour télécharger toutes les données de l'annexe statistique des </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dynamiques du développement en Afrique</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> au format Excel non compressé, y compris les données historiques remontant à 2000, cliquez ici pour télécharger le deuxième des deux fichiers de données</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -539,7 +629,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.000_);\(#,##0.000\)"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -662,6 +752,15 @@
       <i/>
       <u/>
       <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -827,9 +926,11 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -872,7 +973,9 @@
     <xf numFmtId="165" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -894,7 +997,9 @@
     <xf numFmtId="165" fontId="8" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -922,7 +1027,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -944,7 +1051,9 @@
     <xf numFmtId="165" fontId="12" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -966,7 +1075,9 @@
     <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1045,9 +1156,14 @@
     <xf numFmtId="165" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1056,6 +1172,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -1342,15 +1459,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L105"/>
+  <dimension ref="A1:L111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="79" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.36328125" style="86" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.36328125" style="88" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.36328125" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="12.453125" customWidth="1"/>
     <col min="8" max="8" width="12.36328125" bestFit="1" customWidth="1"/>
@@ -1814,13 +1931,13 @@
         <v>6899.6460377201001</v>
       </c>
       <c r="H13" s="38">
-        <v>70.089665690443695</v>
+        <v>69.678200000000004</v>
       </c>
       <c r="I13" s="38">
         <v>52.63</v>
       </c>
       <c r="J13" s="38">
-        <v>42.800249244689702</v>
+        <v>38.29</v>
       </c>
       <c r="K13" s="40">
         <v>0.58630000000000004</v>
@@ -2194,13 +2311,13 @@
         <v>2048.7129910644799</v>
       </c>
       <c r="H23" s="38">
-        <v>67.805614913010501</v>
+        <v>67.049111111111102</v>
       </c>
       <c r="I23" s="38">
         <v>44.828571428571401</v>
       </c>
       <c r="J23" s="38">
-        <v>61.121238292000498</v>
+        <v>41.6142857142857</v>
       </c>
       <c r="K23" s="40">
         <v>0.52611111111110997</v>
@@ -2764,13 +2881,13 @@
         <v>3159.09417531092</v>
       </c>
       <c r="H38" s="38">
-        <v>73.801970478504998</v>
+        <v>68.171153846153899</v>
       </c>
       <c r="I38" s="38">
         <v>40.9181818181818</v>
       </c>
       <c r="J38" s="38">
-        <v>38.757823086210003</v>
+        <v>31.2909090909091</v>
       </c>
       <c r="K38" s="40">
         <v>0.54976923076923001</v>
@@ -3030,13 +3147,13 @@
         <v>11332.597256838601</v>
       </c>
       <c r="H45" s="38">
-        <v>45.178202381442901</v>
+        <v>45.7605</v>
       </c>
       <c r="I45" s="38">
         <v>32.799999999999997</v>
       </c>
       <c r="J45" s="38">
-        <v>2.3505115997249102</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="K45" s="40">
         <v>0.68483333333332996</v>
@@ -3638,13 +3755,13 @@
         <v>4369.4091838631002</v>
       </c>
       <c r="H61" s="38">
-        <v>58.707740259608997</v>
+        <v>64.576800000000006</v>
       </c>
       <c r="I61" s="38">
         <v>39.6142857142857</v>
       </c>
       <c r="J61" s="38">
-        <v>37.487429566475697</v>
+        <v>36.85</v>
       </c>
       <c r="K61" s="40">
         <v>0.49186666666667</v>
@@ -3676,13 +3793,13 @@
         <v>5195.6120862261196</v>
       </c>
       <c r="H62" s="46">
-        <v>63.666081700921502</v>
+        <v>64.710641509433998</v>
       </c>
       <c r="I62" s="46">
         <v>42.740425531914902</v>
       </c>
       <c r="J62" s="46">
-        <v>35.885977947958402</v>
+        <v>32.885106382978698</v>
       </c>
       <c r="K62" s="48">
         <v>0.55154716981132001</v>
@@ -3714,13 +3831,13 @@
         <v>20085.5451952689</v>
       </c>
       <c r="H63" s="46">
-        <v>60.050543425412499</v>
+        <v>61.755231999999999</v>
       </c>
       <c r="I63" s="46">
         <v>35.828712871287102</v>
       </c>
       <c r="J63" s="46">
-        <v>6.71414870566581</v>
+        <v>3.20495049504951</v>
       </c>
       <c r="K63" s="48">
         <v>0.77600746268656995</v>
@@ -3752,13 +3869,13 @@
         <v>16082.8471582076</v>
       </c>
       <c r="H64" s="54">
-        <v>64.156855162419205</v>
+        <v>64.556068965517198</v>
       </c>
       <c r="I64" s="54">
         <v>45.8</v>
       </c>
       <c r="J64" s="54">
-        <v>3.8148239347477801</v>
+        <v>4.5894736842105299</v>
       </c>
       <c r="K64" s="56">
         <v>0.74003030303030004</v>
@@ -3790,13 +3907,13 @@
         <v>11144.6228441608</v>
       </c>
       <c r="H65" s="61">
-        <v>59.404180889467398</v>
+        <v>60.182166666666703</v>
       </c>
       <c r="I65" s="61">
         <v>34.975000000000001</v>
       </c>
       <c r="J65" s="61">
-        <v>9.3339106027386691</v>
+        <v>5.8583333333333396</v>
       </c>
       <c r="K65" s="62">
         <v>0.66489655172413997</v>
@@ -3828,13 +3945,13 @@
         <v>17556.202601704801</v>
       </c>
       <c r="H66" s="54">
-        <v>60.666443940724697</v>
+        <v>62.635213483146103</v>
       </c>
       <c r="I66" s="54">
         <v>38.023648648648603</v>
       </c>
       <c r="J66" s="54">
-        <v>11.654058152204</v>
+        <v>12.6304054054054</v>
       </c>
       <c r="K66" s="56">
         <v>0.71239037433154995</v>
@@ -3866,13 +3983,13 @@
         <v>4736.10276541445</v>
       </c>
       <c r="H67" s="66">
-        <v>66.194999078557501</v>
+        <v>65.110150000000004</v>
       </c>
       <c r="I67" s="66">
         <v>41.961111111111101</v>
       </c>
       <c r="J67" s="66">
-        <v>38.797921278115901</v>
+        <v>35.633333333333297</v>
       </c>
       <c r="K67" s="68">
         <v>0.57410000000000005</v>
@@ -3904,13 +4021,13 @@
         <v>6057.2018478626196</v>
       </c>
       <c r="H68" s="61">
-        <v>54.902622125075901</v>
+        <v>59.42792</v>
       </c>
       <c r="I68" s="61">
         <v>38.884999999999998</v>
       </c>
       <c r="J68" s="61">
-        <v>26.3328838312481</v>
+        <v>28.27</v>
       </c>
       <c r="K68" s="62">
         <v>0.51537500000000003</v>
@@ -3942,13 +4059,13 @@
         <v>3119.0314522294502</v>
       </c>
       <c r="H69" s="61">
-        <v>77.071873396618798</v>
+        <v>77.273333333333298</v>
       </c>
       <c r="I69" s="61">
         <v>41.28</v>
       </c>
       <c r="J69" s="61">
-        <v>45.8419020367581</v>
+        <v>51.46</v>
       </c>
       <c r="K69" s="62">
         <v>0.50116666666666998</v>
@@ -3980,13 +4097,13 @@
         <v>2924.22662187683</v>
       </c>
       <c r="H70" s="61">
-        <v>70.367430429715796</v>
+        <v>69.508181818181797</v>
       </c>
       <c r="I70" s="61">
         <v>45.422222222222203</v>
       </c>
       <c r="J70" s="61">
-        <v>59.275769057746601</v>
+        <v>44.4</v>
       </c>
       <c r="K70" s="62">
         <v>0.53136363636364004</v>
@@ -4018,13 +4135,13 @@
         <v>4369.4091838630902</v>
       </c>
       <c r="H71" s="61">
-        <v>58.707740259608997</v>
+        <v>64.576800000000006</v>
       </c>
       <c r="I71" s="61">
         <v>39.6142857142857</v>
       </c>
       <c r="J71" s="61">
-        <v>37.487429566475697</v>
+        <v>36.85</v>
       </c>
       <c r="K71" s="62">
         <v>0.49186666666667</v>
@@ -4056,13 +4173,13 @@
         <v>3303.0600512874998</v>
       </c>
       <c r="H72" s="61">
-        <v>70.375826283405402</v>
+        <v>66.429625000000001</v>
       </c>
       <c r="I72" s="61">
         <v>38.880000000000003</v>
       </c>
       <c r="J72" s="61">
-        <v>31.579081585415999</v>
+        <v>28.08</v>
       </c>
       <c r="K72" s="62">
         <v>0.48957142857142999</v>
@@ -4094,13 +4211,13 @@
         <v>4454.7837029284601</v>
       </c>
       <c r="H73" s="61">
-        <v>71.763578535412805</v>
+        <v>68.758466666666706</v>
       </c>
       <c r="I73" s="61">
         <v>48.774999999999999</v>
       </c>
       <c r="J73" s="61">
-        <v>54.732228058548301</v>
+        <v>37.962499999999999</v>
       </c>
       <c r="K73" s="62">
         <v>0.59412500000000001</v>
@@ -4132,13 +4249,13 @@
         <v>10296.3104336208</v>
       </c>
       <c r="H74" s="54">
-        <v>43.969114376064198</v>
+        <v>45.63</v>
       </c>
       <c r="I74" s="54">
         <v>33.125</v>
       </c>
       <c r="J74" s="54">
-        <v>0.83073523060503995</v>
+        <v>1.875</v>
       </c>
       <c r="K74" s="56">
         <v>0.68179999999999996</v>
@@ -4170,13 +4287,13 @@
         <v>13158.7156712284</v>
       </c>
       <c r="H75" s="66">
-        <v>67.523940822647504</v>
+        <v>69.384699999999995</v>
       </c>
       <c r="I75" s="66">
         <v>37.485714285714302</v>
       </c>
       <c r="J75" s="66">
-        <v>3.1879360918360198</v>
+        <v>4.8714285714285701</v>
       </c>
       <c r="K75" s="68">
         <v>0.72299999999999998</v>
@@ -4208,13 +4325,13 @@
         <v>15592.2673923155</v>
       </c>
       <c r="H76" s="61">
-        <v>65.391934570248793</v>
+        <v>64.770750000000007</v>
       </c>
       <c r="I76" s="61">
         <v>45.155555555555601</v>
       </c>
       <c r="J76" s="61">
-        <v>3.5541138207117098</v>
+        <v>2.4666666666666699</v>
       </c>
       <c r="K76" s="62">
         <v>0.75591666666667001</v>
@@ -4246,13 +4363,13 @@
         <v>46642.7929108432</v>
       </c>
       <c r="H77" s="54">
-        <v>56.947789790650603</v>
+        <v>58.433296296296298</v>
       </c>
       <c r="I77" s="54">
         <v>31.325925925925901</v>
       </c>
       <c r="J77" s="54">
-        <v>0.54610721705774001</v>
+        <v>0.52962962962963001</v>
       </c>
       <c r="K77" s="56">
         <v>0.88655555555555998</v>
@@ -4284,13 +4401,13 @@
         <v>5207.9355203967298</v>
       </c>
       <c r="H78" s="66">
-        <v>58.927389800311701</v>
+        <v>63.253466666666696</v>
       </c>
       <c r="I78" s="66">
         <v>42.991666666666703</v>
       </c>
       <c r="J78" s="66">
-        <v>42.200408229809902</v>
+        <v>32.625</v>
       </c>
       <c r="K78" s="68">
         <v>0.58013333333332995</v>
@@ -4322,13 +4439,13 @@
         <v>21218.618175794902</v>
       </c>
       <c r="H79" s="61">
-        <v>56.900317391355401</v>
+        <v>61.717043478260898</v>
       </c>
       <c r="I79" s="61">
         <v>35.57</v>
       </c>
       <c r="J79" s="61">
-        <v>1.9606911211628799</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="K79" s="62">
         <v>0.75</v>
@@ -4360,13 +4477,13 @@
         <v>5188.5911143840503</v>
       </c>
       <c r="H80" s="61">
-        <v>66.316379825923093</v>
+        <v>65.2858421052632</v>
       </c>
       <c r="I80" s="61">
         <v>42.654285714285699</v>
       </c>
       <c r="J80" s="61">
-        <v>32.314716419139302</v>
+        <v>32.974285714285699</v>
       </c>
       <c r="K80" s="62">
         <v>0.54026315789474</v>
@@ -4398,13 +4515,13 @@
         <v>19987.5488193003</v>
       </c>
       <c r="H81" s="54">
-        <v>60.320516206355499</v>
+        <v>61.763843137254902</v>
       </c>
       <c r="I81" s="54">
         <v>35.857142857142797</v>
       </c>
       <c r="J81" s="54">
-        <v>7.0178727612234901</v>
+        <v>3.0472527472527502</v>
       </c>
       <c r="K81" s="56">
         <v>0.78139639639640002</v>
@@ -4436,13 +4553,13 @@
         <v>2069.8249547687801</v>
       </c>
       <c r="H82" s="66">
-        <v>70.4936496382619</v>
+        <v>70.450086956521801</v>
       </c>
       <c r="I82" s="66">
         <v>40.2777777777778</v>
       </c>
       <c r="J82" s="66">
-        <v>49.113812748640598</v>
+        <v>49.183333333333401</v>
       </c>
       <c r="K82" s="68">
         <v>0.45690909090908999</v>
@@ -4474,13 +4591,13 @@
         <v>2243.5628609280898</v>
       </c>
       <c r="H83" s="61">
-        <v>53.111191634307801</v>
+        <v>53.4301666666667</v>
       </c>
       <c r="I83" s="61">
         <v>37.266666666666701</v>
       </c>
       <c r="J83" s="61">
-        <v>17.043066645889098</v>
+        <v>15.633333333333301</v>
       </c>
       <c r="K83" s="62">
         <v>0.53339999999999999</v>
@@ -4512,13 +4629,13 @@
         <v>6646.8297890487402</v>
       </c>
       <c r="H84" s="61">
-        <v>59.189669201157898</v>
+        <v>60.873043478260897</v>
       </c>
       <c r="I84" s="61">
         <v>42.904347826086997</v>
       </c>
       <c r="J84" s="61">
-        <v>28.435335977367</v>
+        <v>26.456521739130402</v>
       </c>
       <c r="K84" s="62">
         <v>0.58726086956521995</v>
@@ -4550,13 +4667,13 @@
         <v>7048.6404188511196</v>
       </c>
       <c r="H85" s="61">
-        <v>53.8592573355862</v>
+        <v>64.206000000000003</v>
       </c>
       <c r="I85" s="61">
         <v>36.072727272727299</v>
       </c>
       <c r="J85" s="61">
-        <v>16.593240214268299</v>
+        <v>8.7272727272727302</v>
       </c>
       <c r="K85" s="62">
         <v>0.64442307692307998</v>
@@ -4588,13 +4705,13 @@
         <v>13352.5249375284</v>
       </c>
       <c r="H86" s="61">
-        <v>56.0339992294452</v>
+        <v>58.486499999999999</v>
       </c>
       <c r="I86" s="61">
         <v>53.35</v>
       </c>
       <c r="J86" s="61">
-        <v>17.858554181875199</v>
+        <v>12.6</v>
       </c>
       <c r="K86" s="62">
         <v>0.67933333333333001</v>
@@ -4626,13 +4743,13 @@
         <v>17292.351734499101</v>
       </c>
       <c r="H87" s="61">
-        <v>64.947380805377406</v>
+        <v>60.049272727272701</v>
       </c>
       <c r="I87" s="61">
         <v>39.125</v>
       </c>
       <c r="J87" s="61">
-        <v>1.3101317703325499</v>
+        <v>1.8472222222222201</v>
       </c>
       <c r="K87" s="62">
         <v>0.75355319148935995</v>
@@ -4664,13 +4781,13 @@
         <v>52077.801247045303</v>
       </c>
       <c r="H88" s="54">
-        <v>60.722772588397198</v>
+        <v>62.962000000000003</v>
       </c>
       <c r="I88" s="54">
         <v>33.0571428571429</v>
       </c>
       <c r="J88" s="54">
-        <v>0.62668069376653002</v>
+        <v>0.46904761904761999</v>
       </c>
       <c r="K88" s="56">
         <v>0.87487931034483002</v>
@@ -4702,13 +4819,13 @@
         <v>2525.6608235519998</v>
       </c>
       <c r="H89" s="66">
-        <v>71.216124990308302</v>
+        <v>68.106212121212096</v>
       </c>
       <c r="I89" s="66">
         <v>42.2392857142857</v>
       </c>
       <c r="J89" s="66">
-        <v>48.804822543825701</v>
+        <v>44.242857142857098</v>
       </c>
       <c r="K89" s="68">
         <v>0.48331249999999998</v>
@@ -4740,13 +4857,13 @@
         <v>4387.3902667474404</v>
       </c>
       <c r="H90" s="61">
-        <v>60.448810445450299</v>
+        <v>67.2574166666667</v>
       </c>
       <c r="I90" s="61">
         <v>35.454545454545503</v>
       </c>
       <c r="J90" s="61">
-        <v>13.0966724883847</v>
+        <v>14.5454545454546</v>
       </c>
       <c r="K90" s="62">
         <v>0.57261538461537997</v>
@@ -4778,13 +4895,13 @@
         <v>9282.8998873706096</v>
       </c>
       <c r="H91" s="61">
-        <v>61.329173271524901</v>
+        <v>58.360399999999998</v>
       </c>
       <c r="I91" s="61">
         <v>46.383333333333297</v>
       </c>
       <c r="J91" s="61">
-        <v>32.1233552730179</v>
+        <v>21.316666666666698</v>
       </c>
       <c r="K91" s="62">
         <v>0.64266666666667005</v>
@@ -4816,13 +4933,13 @@
         <v>22132.969829736401</v>
       </c>
       <c r="H92" s="61">
-        <v>61.224204162982701</v>
+        <v>63.600636363636397</v>
       </c>
       <c r="I92" s="61">
         <v>38.575000000000003</v>
       </c>
       <c r="J92" s="61">
-        <v>12.658338810163899</v>
+        <v>9.25833333333334</v>
       </c>
       <c r="K92" s="62">
         <v>0.71693333333332998</v>
@@ -4854,13 +4971,13 @@
         <v>2438.6041852523199</v>
       </c>
       <c r="H93" s="61">
-        <v>75.350644638954904</v>
+        <v>72.666375000000002</v>
       </c>
       <c r="I93" s="61">
         <v>43.992307692307698</v>
       </c>
       <c r="J93" s="61">
-        <v>42.418237883007897</v>
+        <v>43.507692307692302</v>
       </c>
       <c r="K93" s="62">
         <v>0.4926875</v>
@@ -4892,13 +5009,13 @@
         <v>8954.6127811342594</v>
       </c>
       <c r="H94" s="54">
-        <v>64.118896203004994</v>
+        <v>62.620312499999997</v>
       </c>
       <c r="I94" s="54">
         <v>34.266666666666701</v>
       </c>
       <c r="J94" s="54">
-        <v>6.89639680821006</v>
+        <v>4.56666666666667</v>
       </c>
       <c r="K94" s="56">
         <v>0.68806250000000002</v>
@@ -4930,13 +5047,13 @@
         <v>3891.5990364519298</v>
       </c>
       <c r="H95" s="66">
-        <v>69.037155107706397</v>
+        <v>67.833931034482802</v>
       </c>
       <c r="I95" s="66">
         <v>42.183999999999997</v>
       </c>
       <c r="J95" s="66">
-        <v>41.6571704663559</v>
+        <v>39.304000000000002</v>
       </c>
       <c r="K95" s="68">
         <v>0.51296551724137995</v>
@@ -4968,13 +5085,13 @@
         <v>6353.8757541476698</v>
       </c>
       <c r="H96" s="61">
-        <v>56.8565252972192</v>
+        <v>63.525571428571403</v>
       </c>
       <c r="I96" s="61">
         <v>39.15</v>
       </c>
       <c r="J96" s="61">
-        <v>6.8351692132214099</v>
+        <v>9.9700000000000006</v>
       </c>
       <c r="K96" s="62">
         <v>0.62669230769230999</v>
@@ -5006,13 +5123,13 @@
         <v>3222.9925399956301</v>
       </c>
       <c r="H97" s="73">
-        <v>54.899444267325698</v>
+        <v>58.7790769230769</v>
       </c>
       <c r="I97" s="73">
         <v>39.299999999999997</v>
       </c>
       <c r="J97" s="73">
-        <v>40.262859776066698</v>
+        <v>35.375</v>
       </c>
       <c r="K97" s="75">
         <v>0.49116666666667003</v>
@@ -5036,79 +5153,208 @@
       <c r="L98" s="56"/>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
+      <c r="A99" s="79" t="s">
         <v>163</v>
       </c>
-      <c r="B99" s="79"/>
-      <c r="C99" s="80"/>
-      <c r="D99" s="80"/>
-      <c r="E99" s="80"/>
-      <c r="F99" s="81"/>
-      <c r="G99" s="82"/>
-      <c r="H99" s="81"/>
-      <c r="I99" s="81"/>
-      <c r="J99" s="81"/>
-      <c r="K99" s="83"/>
-      <c r="L99" s="84"/>
+      <c r="B99" s="80"/>
+      <c r="C99" s="81"/>
+      <c r="D99" s="81"/>
+      <c r="E99" s="81"/>
+      <c r="F99" s="82"/>
+      <c r="G99" s="83"/>
+      <c r="H99" s="82"/>
+      <c r="I99" s="82"/>
+      <c r="J99" s="82"/>
+      <c r="K99" s="84"/>
+      <c r="L99" s="85"/>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
+      <c r="A100" s="79" t="s">
         <v>164</v>
       </c>
-      <c r="B100" s="79"/>
-      <c r="C100" s="80"/>
-      <c r="D100" s="80"/>
-      <c r="E100" s="80"/>
-      <c r="F100" s="81"/>
-      <c r="G100" s="82"/>
-      <c r="H100" s="81"/>
-      <c r="I100" s="81"/>
-      <c r="J100" s="81"/>
-      <c r="K100" s="83"/>
-      <c r="L100" s="84"/>
+      <c r="B100" s="80"/>
+      <c r="C100" s="81"/>
+      <c r="D100" s="81"/>
+      <c r="E100" s="81"/>
+      <c r="F100" s="82"/>
+      <c r="G100" s="83"/>
+      <c r="H100" s="82"/>
+      <c r="I100" s="82"/>
+      <c r="J100" s="82"/>
+      <c r="K100" s="84"/>
+      <c r="L100" s="85"/>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
+      <c r="A101" s="79" t="s">
         <v>165</v>
       </c>
-      <c r="B101" s="79"/>
-      <c r="C101" s="80"/>
-      <c r="D101" s="80"/>
-      <c r="E101" s="80"/>
-      <c r="F101" s="81"/>
-      <c r="G101" s="82"/>
-      <c r="H101" s="81"/>
-      <c r="I101" s="81"/>
-      <c r="J101" s="81"/>
-      <c r="K101" s="83"/>
-      <c r="L101" s="84"/>
+      <c r="B101" s="80"/>
+      <c r="C101" s="81"/>
+      <c r="D101" s="81"/>
+      <c r="E101" s="81"/>
+      <c r="F101" s="82"/>
+      <c r="G101" s="83"/>
+      <c r="H101" s="82"/>
+      <c r="I101" s="82"/>
+      <c r="J101" s="82"/>
+      <c r="K101" s="84"/>
+      <c r="L101" s="85"/>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
+      <c r="A102" s="79" t="s">
         <v>166</v>
       </c>
-      <c r="B102" s="79"/>
-      <c r="C102" s="80"/>
-      <c r="D102" s="80"/>
-      <c r="E102" s="80"/>
-      <c r="F102" s="81"/>
-      <c r="G102" s="82"/>
-      <c r="H102" s="81"/>
-      <c r="I102" s="81"/>
-      <c r="J102" s="81"/>
-      <c r="K102" s="83"/>
-      <c r="L102" s="84"/>
+      <c r="B102" s="80"/>
+      <c r="C102" s="81"/>
+      <c r="D102" s="81"/>
+      <c r="E102" s="81"/>
+      <c r="F102" s="82"/>
+      <c r="G102" s="83"/>
+      <c r="H102" s="82"/>
+      <c r="I102" s="82"/>
+      <c r="J102" s="82"/>
+      <c r="K102" s="84"/>
+      <c r="L102" s="85"/>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B103" s="80"/>
+      <c r="C103" s="81"/>
+      <c r="D103" s="81"/>
+      <c r="E103" s="81"/>
+      <c r="F103" s="82"/>
+      <c r="G103" s="83"/>
+      <c r="H103" s="82"/>
+      <c r="I103" s="82"/>
+      <c r="J103" s="82"/>
+      <c r="K103" s="84"/>
+      <c r="L103" s="85"/>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B104" s="80"/>
+      <c r="C104" s="81"/>
+      <c r="D104" s="81"/>
+      <c r="E104" s="81"/>
+      <c r="F104" s="82"/>
+      <c r="G104" s="83"/>
+      <c r="H104" s="82"/>
+      <c r="I104" s="82"/>
+      <c r="J104" s="82"/>
+      <c r="K104" s="84"/>
+      <c r="L104" s="85"/>
     </row>
     <row r="105" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B105" s="85" t="s">
+      <c r="B105" s="86" t="s">
         <v>167</v>
       </c>
+      <c r="C105" s="81"/>
+      <c r="D105" s="81"/>
+      <c r="E105" s="81"/>
+      <c r="F105" s="82"/>
+      <c r="G105" s="83"/>
+      <c r="H105" s="82"/>
+      <c r="I105" s="82"/>
+      <c r="J105" s="82"/>
+      <c r="K105" s="84"/>
+      <c r="L105" s="85"/>
+    </row>
+    <row r="106" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B106" s="86"/>
+      <c r="C106" s="81"/>
+      <c r="D106" s="81"/>
+      <c r="E106" s="81"/>
+      <c r="F106" s="82"/>
+      <c r="G106" s="83"/>
+      <c r="H106" s="82"/>
+      <c r="I106" s="82"/>
+      <c r="J106" s="82"/>
+      <c r="K106" s="84"/>
+      <c r="L106" s="85"/>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B107" s="87" t="s">
+        <v>168</v>
+      </c>
+      <c r="C107" s="81"/>
+      <c r="D107" s="81"/>
+      <c r="E107" s="81"/>
+      <c r="F107" s="82"/>
+      <c r="G107" s="83"/>
+      <c r="H107" s="82"/>
+      <c r="I107" s="82"/>
+      <c r="J107" s="82"/>
+      <c r="K107" s="84"/>
+      <c r="L107" s="85"/>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B108" s="87" t="s">
+        <v>169</v>
+      </c>
+      <c r="C108" s="81"/>
+      <c r="D108" s="81"/>
+      <c r="E108" s="81"/>
+      <c r="F108" s="82"/>
+      <c r="G108" s="83"/>
+      <c r="H108" s="82"/>
+      <c r="I108" s="82"/>
+      <c r="J108" s="82"/>
+      <c r="K108" s="84"/>
+      <c r="L108" s="85"/>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B109" s="87" t="s">
+        <v>170</v>
+      </c>
+      <c r="C109" s="81"/>
+      <c r="D109" s="81"/>
+      <c r="E109" s="81"/>
+      <c r="F109" s="82"/>
+      <c r="G109" s="83"/>
+      <c r="H109" s="82"/>
+      <c r="I109" s="82"/>
+      <c r="J109" s="82"/>
+      <c r="K109" s="84"/>
+      <c r="L109" s="85"/>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B110" s="87" t="s">
+        <v>171</v>
+      </c>
+      <c r="C110" s="81"/>
+      <c r="D110" s="81"/>
+      <c r="E110" s="81"/>
+      <c r="F110" s="82"/>
+      <c r="G110" s="83"/>
+      <c r="H110" s="82"/>
+      <c r="I110" s="82"/>
+      <c r="J110" s="82"/>
+      <c r="K110" s="84"/>
+      <c r="L110" s="85"/>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B111" s="87" t="s">
+        <v>172</v>
+      </c>
+      <c r="C111" s="81"/>
+      <c r="D111" s="81"/>
+      <c r="E111" s="81"/>
+      <c r="F111" s="82"/>
+      <c r="G111" s="83"/>
+      <c r="H111" s="82"/>
+      <c r="I111" s="82"/>
+      <c r="J111" s="82"/>
+      <c r="K111" s="84"/>
+      <c r="L111" s="85"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B105" r:id="rId1"/>
+    <hyperlink ref="B105" r:id="rId1" display="Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les séries chronologiques historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-fr-2020."/>
+    <hyperlink ref="B109" r:id="rId2"/>
+    <hyperlink ref="B111" r:id="rId3"/>
+    <hyperlink ref="B107" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails."/>
+    <hyperlink ref="B108" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs."/>
+    <hyperlink ref="B110" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="54" fitToHeight="0" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="54" fitToHeight="0" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>